--- a/buildinglist_hr.xlsx
+++ b/buildinglist_hr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>UCI Croul</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>AEC</t>
+  </si>
+  <si>
+    <t>AEC_ECM</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +520,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
